--- a/config/mobile.xlsx
+++ b/config/mobile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\python\UiAutomation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF06A995-9B41-4DA6-91FD-DF10B1A89E88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A0C3D4-C63D-4F8F-AB99-F05C21D4018D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3405" windowWidth="23835" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="android" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>appium_url</t>
   </si>
@@ -66,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>unicondeKeyboard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>resetKeyboard</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,11 +98,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>False</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌上test</t>
+    <t>chromeOptions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'androidProcess': 'com.tencent.mm:tools'}</t>
+  </si>
+  <si>
+    <t>{'androidProcess': 'com.tencent.mm:tools'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.ui.LauncherUI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unicodeKeyboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoAcceptAlerts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recreateChromeDriverSessions</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -157,13 +180,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -444,14 +486,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="2" width="13.125" customWidth="1"/>
     <col min="3" max="3" width="14.375" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
@@ -459,132 +502,171 @@
     <col min="6" max="6" width="15.5" customWidth="1"/>
     <col min="7" max="7" width="16.125" customWidth="1"/>
     <col min="8" max="8" width="30.875" customWidth="1"/>
-    <col min="11" max="11" width="17.375" customWidth="1"/>
-    <col min="12" max="12" width="14.75" customWidth="1"/>
-    <col min="13" max="13" width="20.125" customWidth="1"/>
+    <col min="11" max="11" width="17.875" customWidth="1"/>
+    <col min="12" max="12" width="17.375" customWidth="1"/>
+    <col min="13" max="13" width="14.75" customWidth="1"/>
+    <col min="14" max="15" width="27.5" customWidth="1"/>
+    <col min="16" max="16" width="20.125" customWidth="1"/>
+    <col min="17" max="17" width="42.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="4">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="B3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="4">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="1">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="1">
+      <c r="I3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="Q3" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1">
-        <v>9</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="1">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -596,12 +678,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCCFB96-C0B9-4DD3-AABB-CA9DA4DB08DA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="57.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/config/mobile.xlsx
+++ b/config/mobile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\python\UiAutomation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A0C3D4-C63D-4F8F-AB99-F05C21D4018D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E988F6D-7106-4F45-ADE7-762062F0F1DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="4215" windowWidth="23835" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="android" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
   <si>
     <t>appium_url</t>
   </si>
@@ -130,6 +130,14 @@
   </si>
   <si>
     <t>recreateChromeDriverSessions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1:62001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,31 +494,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="2" width="13.125" customWidth="1"/>
-    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="37.25" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
     <col min="7" max="7" width="16.125" customWidth="1"/>
     <col min="8" max="8" width="30.875" customWidth="1"/>
-    <col min="11" max="11" width="17.875" customWidth="1"/>
-    <col min="12" max="12" width="17.375" customWidth="1"/>
-    <col min="13" max="13" width="14.75" customWidth="1"/>
-    <col min="14" max="15" width="27.5" customWidth="1"/>
-    <col min="16" max="16" width="20.125" customWidth="1"/>
-    <col min="17" max="17" width="42.25" customWidth="1"/>
+    <col min="11" max="11" width="17.375" customWidth="1"/>
+    <col min="12" max="12" width="14.75" customWidth="1"/>
+    <col min="13" max="14" width="27.5" customWidth="1"/>
+    <col min="15" max="15" width="20.125" customWidth="1"/>
+    <col min="16" max="16" width="42.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -542,28 +549,25 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="O1" s="3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -606,17 +610,14 @@
       <c r="N2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" s="4">
+      <c r="O2" s="4">
         <v>30</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -659,13 +660,60 @@
       <c r="N3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="P3" s="4">
+      <c r="O3" s="4">
         <v>30</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="P3" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="4">
+        <v>30</v>
+      </c>
+      <c r="P4" s="6" t="s">
         <v>21</v>
       </c>
     </row>

--- a/config/mobile.xlsx
+++ b/config/mobile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\python\UiAutomation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E988F6D-7106-4F45-ADE7-762062F0F1DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D21B9E4-5AC3-4FCC-8349-3BD2F283D032}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="4215" windowWidth="23835" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1365" yWindow="1500" windowWidth="25230" windowHeight="12990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="android" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
   <si>
     <t>appium_url</t>
   </si>
@@ -138,6 +138,18 @@
   </si>
   <si>
     <t>5.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快手极速版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.kuaishou.nebula</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.yxcorp.gifshow.HomeActivity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -505,7 +517,7 @@
     <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="2" width="13.125" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="4" max="4" width="22.125" customWidth="1"/>
     <col min="5" max="5" width="37.25" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
     <col min="7" max="7" width="16.125" customWidth="1"/>
@@ -716,6 +728,54 @@
       <c r="P4" s="6" t="s">
         <v>21</v>
       </c>
+    </row>
+    <row r="5" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="4">
+        <v>30</v>
+      </c>
+      <c r="P5" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config/mobile.xlsx
+++ b/config/mobile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\python\UiAutomation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D21B9E4-5AC3-4FCC-8349-3BD2F283D032}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5E3620-6A61-49BB-8221-4B93C889EF48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1365" yWindow="1500" windowWidth="25230" windowHeight="12990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="37">
   <si>
     <t>appium_url</t>
   </si>
@@ -85,71 +85,89 @@
     <t>c09714bd</t>
   </si>
   <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chromeOptions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'androidProcess': 'com.tencent.mm:tools'}</t>
+  </si>
+  <si>
+    <t>{'androidProcess': 'com.tencent.mm:tools'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.ui.LauncherUI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unicodeKeyboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoAcceptAlerts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recreateChromeDriverSessions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1:62001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快手极速版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.kuaishou.nebula</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.yxcorp.gifshow.HomeActivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>com.tencent.tgp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>com.tencent.wegame.splash.SplashActivity</t>
-  </si>
-  <si>
-    <t>Android</t>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chromeOptions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'androidProcess': 'com.tencent.mm:tools'}</t>
-  </si>
-  <si>
-    <t>{'androidProcess': 'com.tencent.mm:tools'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.tencent.mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.ui.LauncherUI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信app</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unicodeKeyboard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>autoAcceptAlerts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>recreateChromeDriverSessions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>127.0.0.1:62001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快手极速版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.kuaishou.nebula</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.yxcorp.gifshow.HomeActivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.redfinger.app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.activity.SplashActivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红手指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快手极速版_模拟器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -531,7 +549,7 @@
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>13</v>
@@ -561,22 +579,22 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -590,16 +608,16 @@
         <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F2" s="4">
         <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>7</v>
@@ -626,7 +644,7 @@
         <v>30</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -634,22 +652,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F3" s="4">
         <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>7</v>
@@ -676,7 +694,7 @@
         <v>30</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -684,22 +702,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>7</v>
@@ -726,7 +744,7 @@
         <v>30</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -734,22 +752,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>7</v>
@@ -776,6 +794,102 @@
         <v>30</v>
       </c>
       <c r="P5" s="6"/>
+    </row>
+    <row r="6" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="4">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="4">
+        <v>30</v>
+      </c>
+      <c r="P6" s="6"/>
+    </row>
+    <row r="7" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7" s="4">
+        <v>30</v>
+      </c>
+      <c r="P7" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -799,17 +913,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/config/mobile.xlsx
+++ b/config/mobile.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\python\UiAutomation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5E3620-6A61-49BB-8221-4B93C889EF48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA162C5-25C6-45AA-8425-640B2D96B479}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="1500" windowWidth="25230" windowHeight="12990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="25230" windowHeight="12990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="android" sheetId="1" r:id="rId1"/>
     <sheet name="ios" sheetId="2" r:id="rId2"/>
+    <sheet name="uiauto2_android" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="41">
   <si>
     <t>appium_url</t>
   </si>
@@ -168,6 +169,22 @@
   </si>
   <si>
     <t>快手极速版_模拟器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>process</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.tencent.mm:tools</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.31.199:5555</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -526,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -931,4 +948,62 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96017F46-C993-4331-8454-D2AADDC3AFDB}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.75" style="8" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="20.75" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="24.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>